--- a/Code/Results/Cases/Case_3_231/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_231/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.554420876390452</v>
+        <v>1.330172223532543</v>
       </c>
       <c r="C2">
-        <v>0.3634520167201174</v>
+        <v>0.1454990197619281</v>
       </c>
       <c r="D2">
-        <v>0.07955068750640493</v>
+        <v>0.1627395962499705</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7660297147138024</v>
+        <v>1.449243925161589</v>
       </c>
       <c r="G2">
-        <v>0.0008004519336991834</v>
+        <v>0.002460514840477119</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3459949926189481</v>
+        <v>0.8401470047134261</v>
       </c>
       <c r="J2">
-        <v>0.05662388786076455</v>
+        <v>0.1661648848737372</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3454606735053858</v>
+        <v>0.4100492350188745</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7995313445918342</v>
+        <v>1.31285967906598</v>
       </c>
       <c r="O2">
-        <v>1.89799689592374</v>
+        <v>3.5491773116849</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.224624471916229</v>
+        <v>1.234824730257856</v>
       </c>
       <c r="C3">
-        <v>0.3236110839326614</v>
+        <v>0.1325167916962755</v>
       </c>
       <c r="D3">
-        <v>0.07468169022666871</v>
+        <v>0.1621084604897121</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7294074031886097</v>
+        <v>1.451221181541058</v>
       </c>
       <c r="G3">
-        <v>0.0008045676691906047</v>
+        <v>0.002463331043428243</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3460300733099793</v>
+        <v>0.8473107237923934</v>
       </c>
       <c r="J3">
-        <v>0.05827974299186067</v>
+        <v>0.1675507071515465</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3099245764018548</v>
+        <v>0.4021374256020636</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8167699942935585</v>
+        <v>1.321882594484997</v>
       </c>
       <c r="O3">
-        <v>1.810401450956562</v>
+        <v>3.556666444458557</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.022567452238832</v>
+        <v>1.176518825988296</v>
       </c>
       <c r="C4">
-        <v>0.2991120450179778</v>
+        <v>0.1244903002525746</v>
       </c>
       <c r="D4">
-        <v>0.07175039595707489</v>
+        <v>0.1617684163544482</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7083481023176148</v>
+        <v>1.453220094237835</v>
       </c>
       <c r="G4">
-        <v>0.0008071820097171889</v>
+        <v>0.002465154225579413</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3468753311772623</v>
+        <v>0.8521635876200619</v>
       </c>
       <c r="J4">
-        <v>0.05937685563745987</v>
+        <v>0.1684575823552752</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2883480316188667</v>
+        <v>0.3974353838752194</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8283373601728599</v>
+        <v>1.327908392823709</v>
       </c>
       <c r="O4">
-        <v>1.760556073957133</v>
+        <v>3.563325983067955</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.940312882913474</v>
+        <v>1.152820232276895</v>
       </c>
       <c r="C5">
-        <v>0.2891165822254322</v>
+        <v>0.1212056876374561</v>
       </c>
       <c r="D5">
-        <v>0.07056995083469531</v>
+        <v>0.1616418336731158</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.700106816343272</v>
+        <v>1.454232090026494</v>
       </c>
       <c r="G5">
-        <v>0.0008082696844979574</v>
+        <v>0.002465920899962988</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3474180764021213</v>
+        <v>0.8542553733955742</v>
       </c>
       <c r="J5">
-        <v>0.0598437247202277</v>
+        <v>0.1688412304223661</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2796119306572109</v>
+        <v>0.3955586415738992</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8332913171683956</v>
+        <v>1.330486233920539</v>
       </c>
       <c r="O5">
-        <v>1.741181684655999</v>
+        <v>3.56655801421536</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.926659020371346</v>
+        <v>1.148888866378826</v>
       </c>
       <c r="C6">
-        <v>0.2874560482657671</v>
+        <v>0.1206594545192416</v>
       </c>
       <c r="D6">
-        <v>0.07037477300728057</v>
+        <v>0.1616215402333054</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6987584080307911</v>
+        <v>1.454412056808138</v>
       </c>
       <c r="G6">
-        <v>0.0008084516498753619</v>
+        <v>0.002466049640137923</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3475199248574334</v>
+        <v>0.8546096094480689</v>
       </c>
       <c r="J6">
-        <v>0.05992243072061676</v>
+        <v>0.1689057862418046</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2781645933958572</v>
+        <v>0.3952493938781174</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8341282264068113</v>
+        <v>1.330921672282486</v>
       </c>
       <c r="O6">
-        <v>1.738019752078117</v>
+        <v>3.567125986993744</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.02145782510172</v>
+        <v>1.176198967018536</v>
       </c>
       <c r="C7">
-        <v>0.2989772943749784</v>
+        <v>0.1244460582801281</v>
       </c>
       <c r="D7">
-        <v>0.07173441978716255</v>
+        <v>0.1617666606098922</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7082356020783678</v>
+        <v>1.453232942930697</v>
       </c>
       <c r="G7">
-        <v>0.0008071965876118581</v>
+        <v>0.002465164469199365</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3468818593117611</v>
+        <v>0.8521913358140303</v>
       </c>
       <c r="J7">
-        <v>0.05938307244021956</v>
+        <v>0.1684626993028271</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.288229990483984</v>
+        <v>0.3974099137790148</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8284032074972743</v>
+        <v>1.327942663187102</v>
       </c>
       <c r="O7">
-        <v>1.760291053582108</v>
+        <v>3.563367473255312</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.440600183273034</v>
+        <v>1.297248048980464</v>
       </c>
       <c r="C8">
-        <v>0.3497207451710267</v>
+        <v>0.1410343315836542</v>
       </c>
       <c r="D8">
-        <v>0.07785940143176617</v>
+        <v>0.1625121564931078</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7530948973394942</v>
+        <v>1.449762816580382</v>
       </c>
       <c r="G8">
-        <v>0.0008018531540976804</v>
+        <v>0.002461466395356253</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3458306786328933</v>
+        <v>0.8425227409265048</v>
       </c>
       <c r="J8">
-        <v>0.0571778713357034</v>
+        <v>0.166631107191197</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3331546305158213</v>
+        <v>0.4072890091514267</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8052669568320141</v>
+        <v>1.315870062571456</v>
       </c>
       <c r="O8">
-        <v>1.866944180366488</v>
+        <v>3.551331706851556</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.267274931872862</v>
+        <v>1.536448333789338</v>
       </c>
       <c r="C9">
-        <v>0.4490751055834039</v>
+        <v>0.1731188463359388</v>
       </c>
       <c r="D9">
-        <v>0.09036113688519976</v>
+        <v>0.1643487647506774</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8532595684161066</v>
+        <v>1.44918449031168</v>
       </c>
       <c r="G9">
-        <v>0.0007920495701938834</v>
+        <v>0.002454957301400221</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3507249153812957</v>
+        <v>0.8271692400991775</v>
       </c>
       <c r="J9">
-        <v>0.0535118438100266</v>
+        <v>0.1634828561049595</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4233987910255763</v>
+        <v>0.4278913796481589</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7680259964463545</v>
+        <v>1.296043243790862</v>
       </c>
       <c r="O9">
-        <v>2.109845748126048</v>
+        <v>3.54409208856373</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.879441151549145</v>
+        <v>1.713232598583033</v>
       </c>
       <c r="C10">
-        <v>0.5221888799474925</v>
+        <v>0.1964143019377218</v>
       </c>
       <c r="D10">
-        <v>0.09988772234525101</v>
+        <v>0.1659241216900469</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9355777642180954</v>
+        <v>1.452556611079743</v>
       </c>
       <c r="G10">
-        <v>0.0007852324650693077</v>
+        <v>0.002450623423602092</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3591782301998663</v>
+        <v>0.818090525418036</v>
       </c>
       <c r="J10">
-        <v>0.05124930931033056</v>
+        <v>0.1614392933172297</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4913427088362567</v>
+        <v>0.4437699733989149</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7461080052221831</v>
+        <v>1.283814056159791</v>
       </c>
       <c r="O10">
-        <v>2.312588381437649</v>
+        <v>3.548765028561007</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.159439717079124</v>
+        <v>1.793869737531736</v>
       </c>
       <c r="C11">
-        <v>0.5555276508391671</v>
+        <v>0.2069507660854413</v>
       </c>
       <c r="D11">
-        <v>0.1043058968167685</v>
+        <v>0.1666893714360924</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9752288254970267</v>
+        <v>1.454915578022636</v>
       </c>
       <c r="G11">
-        <v>0.0007822088494270505</v>
+        <v>0.002448748232081838</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3642249989941604</v>
+        <v>0.8144390627631424</v>
       </c>
       <c r="J11">
-        <v>0.0503205217148448</v>
+        <v>0.1605679409897238</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5226882281904892</v>
+        <v>0.4511532148845561</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7374345770358133</v>
+        <v>1.278756691723103</v>
       </c>
       <c r="O11">
-        <v>2.410976235325677</v>
+        <v>3.553064548173182</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.265727270717605</v>
+        <v>1.824434629176551</v>
       </c>
       <c r="C12">
-        <v>0.5681680995036231</v>
+        <v>0.2109317733121543</v>
       </c>
       <c r="D12">
-        <v>0.1059919766926285</v>
+        <v>0.1669860954404427</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9905880334999182</v>
+        <v>1.455927477015777</v>
       </c>
       <c r="G12">
-        <v>0.0007810745035090297</v>
+        <v>0.002448051922956835</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3663219420450829</v>
+        <v>0.8131252086087812</v>
       </c>
       <c r="J12">
-        <v>0.04998387941676796</v>
+        <v>0.160246348798907</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5346278873431487</v>
+        <v>0.4539718976102876</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.734347127957939</v>
+        <v>1.276914209311926</v>
       </c>
       <c r="O12">
-        <v>2.449197784251481</v>
+        <v>3.555005475567469</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.242824200338248</v>
+        <v>1.81785065679469</v>
       </c>
       <c r="C13">
-        <v>0.5654449762472211</v>
+        <v>0.210074792000114</v>
       </c>
       <c r="D13">
-        <v>0.1056282560480497</v>
+        <v>0.1669218827265269</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9872643894052118</v>
+        <v>1.455704271610514</v>
       </c>
       <c r="G13">
-        <v>0.0007813183409507524</v>
+        <v>0.002448201273414637</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.365861844238573</v>
+        <v>0.8134051062503787</v>
       </c>
       <c r="J13">
-        <v>0.05005570077888066</v>
+        <v>0.1603152373270191</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5320532491157337</v>
+        <v>0.4533638325312381</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7350031301233813</v>
+        <v>1.277307792013943</v>
       </c>
       <c r="O13">
-        <v>2.440921895630709</v>
+        <v>3.554573547319535</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.168178646817296</v>
+        <v>1.796383751843223</v>
       </c>
       <c r="C14">
-        <v>0.5565672451666615</v>
+        <v>0.207278465845377</v>
       </c>
       <c r="D14">
-        <v>0.1044443456536612</v>
+        <v>0.1667136442841155</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9764853751880906</v>
+        <v>1.454996450572537</v>
       </c>
       <c r="G14">
-        <v>0.0007821153162286701</v>
+        <v>0.0024486906703006</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3643937129787105</v>
+        <v>0.8143295904271497</v>
       </c>
       <c r="J14">
-        <v>0.05029252022017516</v>
+        <v>0.160541315714724</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.523669071189488</v>
+        <v>0.4513846536012807</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7371765603621085</v>
+        <v>1.278603654466451</v>
       </c>
       <c r="O14">
-        <v>2.414100951157025</v>
+        <v>3.553217959431862</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.122490935671294</v>
+        <v>1.783238420744169</v>
       </c>
       <c r="C15">
-        <v>0.5511315715214096</v>
+        <v>0.2055644677543285</v>
       </c>
       <c r="D15">
-        <v>0.1037208877285991</v>
+        <v>0.1665869946117056</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9699285864477645</v>
+        <v>1.45457833557461</v>
       </c>
       <c r="G15">
-        <v>0.000782604855220418</v>
+        <v>0.002448992233392291</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3635190463224376</v>
+        <v>0.8149048353566641</v>
       </c>
       <c r="J15">
-        <v>0.05043956065059341</v>
+        <v>0.160680884990315</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5185428218671149</v>
+        <v>0.4501753139778799</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7385338254072877</v>
+        <v>1.27940686368958</v>
       </c>
       <c r="O15">
-        <v>2.397800342703079</v>
+        <v>3.552428363639109</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.861176496431369</v>
+        <v>1.707966981225866</v>
       </c>
       <c r="C16">
-        <v>0.5200120712260912</v>
+        <v>0.1957244807205996</v>
       </c>
       <c r="D16">
-        <v>0.09960075681187419</v>
+        <v>0.1658750847560242</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9330331134749485</v>
+        <v>1.45241904584428</v>
       </c>
       <c r="G16">
-        <v>0.0007854315820498953</v>
+        <v>0.002450747904238741</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3588736843823028</v>
+        <v>0.8183387914515379</v>
       </c>
       <c r="J16">
-        <v>0.05131208161966683</v>
+        <v>0.1614974100360218</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4893035856295853</v>
+        <v>0.4432906637674137</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7467018147866469</v>
+        <v>1.284154735651768</v>
       </c>
       <c r="O16">
-        <v>2.306289027923242</v>
+        <v>3.548527804439715</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.70128523907465</v>
+        <v>1.661844668426568</v>
       </c>
       <c r="C17">
-        <v>0.5009445167356432</v>
+        <v>0.1896722736602499</v>
       </c>
       <c r="D17">
-        <v>0.09709542454466913</v>
+        <v>0.1654507663300819</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9109822625209318</v>
+        <v>1.451305672233204</v>
       </c>
       <c r="G17">
-        <v>0.0007871851855520667</v>
+        <v>0.00245184957343578</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3563406271815737</v>
+        <v>0.820568014349071</v>
       </c>
       <c r="J17">
-        <v>0.05187350533834945</v>
+        <v>0.1620132402328469</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.471483052281684</v>
+        <v>0.4391079908652102</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.752052073120133</v>
+        <v>1.287196867968163</v>
       </c>
       <c r="O17">
-        <v>2.251781449751263</v>
+        <v>3.546691841121543</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.609460648013908</v>
+        <v>1.635336878495764</v>
       </c>
       <c r="C18">
-        <v>0.4899845075447615</v>
+        <v>0.1861854967749821</v>
       </c>
       <c r="D18">
-        <v>0.0956623204067526</v>
+        <v>0.1652112881536567</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8985049146355522</v>
+        <v>1.450742940734415</v>
       </c>
       <c r="G18">
-        <v>0.000788201141075112</v>
+        <v>0.002452492293311792</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3549959175560247</v>
+        <v>0.8218952380197138</v>
       </c>
       <c r="J18">
-        <v>0.05220583670149104</v>
+        <v>0.1623154177824144</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.461273890611821</v>
+        <v>0.4367172987732886</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7552508300953633</v>
+        <v>1.288994231388614</v>
       </c>
       <c r="O18">
-        <v>2.221004845784847</v>
+        <v>3.545840437384982</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.57839342087965</v>
+        <v>1.626365381573748</v>
       </c>
       <c r="C19">
-        <v>0.4862747350148879</v>
+        <v>0.1850039594608859</v>
       </c>
       <c r="D19">
-        <v>0.09517842686236122</v>
+        <v>0.1651309928497966</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8943148314918261</v>
+        <v>1.450565746869756</v>
       </c>
       <c r="G19">
-        <v>0.0007885464002304545</v>
+        <v>0.002452711466785575</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3545595144826592</v>
+        <v>0.8223523456109376</v>
       </c>
       <c r="J19">
-        <v>0.05231995706048131</v>
+        <v>0.1624186723767824</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4578240390969484</v>
+        <v>0.4359104459233691</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.756354422554665</v>
+        <v>1.289610967693477</v>
       </c>
       <c r="O19">
-        <v>2.210680821814492</v>
+        <v>3.545587299590494</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.718291105666253</v>
+        <v>1.666752354566313</v>
       </c>
       <c r="C20">
-        <v>0.5029735202515155</v>
+        <v>0.1903171334856779</v>
       </c>
       <c r="D20">
-        <v>0.09736129808852922</v>
+        <v>0.1654954622486358</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9133081307585655</v>
+        <v>1.451416156256343</v>
       </c>
       <c r="G20">
-        <v>0.0007869977565551976</v>
+        <v>0.00245173136070459</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.356598567256988</v>
+        <v>0.820326048452678</v>
       </c>
       <c r="J20">
-        <v>0.05181276197517803</v>
+        <v>0.1619577615536301</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.473375814025573</v>
+        <v>0.4395516851993904</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7514698879137356</v>
+        <v>1.286868101100453</v>
       </c>
       <c r="O20">
-        <v>2.257523842837088</v>
+        <v>3.546866106354997</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.190096518658152</v>
+        <v>1.802688320252912</v>
       </c>
       <c r="C21">
-        <v>0.5591743845139376</v>
+        <v>0.208100058275221</v>
       </c>
       <c r="D21">
-        <v>0.1047917284728115</v>
+        <v>0.1667746209951773</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.9796418642212075</v>
+        <v>1.455201135910798</v>
       </c>
       <c r="G21">
-        <v>0.0007818809409703496</v>
+        <v>0.002448546548940128</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3648197861610214</v>
+        <v>0.8140561772016994</v>
       </c>
       <c r="J21">
-        <v>0.05022254645842139</v>
+        <v>0.1604746839294098</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5261297560035132</v>
+        <v>0.4519653689564649</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7365327381272166</v>
+        <v>1.278221057782055</v>
       </c>
       <c r="O21">
-        <v>2.421952090595539</v>
+        <v>3.553607637715402</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.499974061667388</v>
+        <v>1.891700587544278</v>
       </c>
       <c r="C22">
-        <v>0.5959992144016439</v>
+        <v>0.219670130761358</v>
       </c>
       <c r="D22">
-        <v>0.1097242399850344</v>
+        <v>0.1676510568967515</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.025015199405402</v>
+        <v>1.458366175395099</v>
       </c>
       <c r="G22">
-        <v>0.0007785985115114038</v>
+        <v>0.002446545412640238</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3712827983734144</v>
+        <v>0.8103599451504095</v>
       </c>
       <c r="J22">
-        <v>0.0492714031283672</v>
+        <v>0.1595541894055277</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5610178695606436</v>
+        <v>0.4602112883755467</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7279240222557632</v>
+        <v>1.272993027642691</v>
       </c>
       <c r="O22">
-        <v>2.535076171816456</v>
+        <v>3.559836907664646</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.334433147016512</v>
+        <v>1.844178100531508</v>
       </c>
       <c r="C23">
-        <v>0.576334913857437</v>
+        <v>0.2134997937420735</v>
       </c>
       <c r="D23">
-        <v>0.1070843830474217</v>
+        <v>0.1671796034807116</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.000604206723565</v>
+        <v>1.456613683864205</v>
       </c>
       <c r="G23">
-        <v>0.0007803449390972965</v>
+        <v>0.002447606128267004</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3677290669806155</v>
+        <v>0.8122959344240428</v>
       </c>
       <c r="J23">
-        <v>0.04977076338304975</v>
+        <v>0.1600410142704494</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5423574704285414</v>
+        <v>0.455798194346599</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.732409462606519</v>
+        <v>1.275744622813505</v>
       </c>
       <c r="O23">
-        <v>2.474154320846168</v>
+        <v>3.556345330178033</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.710602447890778</v>
+        <v>1.664533562910833</v>
       </c>
       <c r="C24">
-        <v>0.5020562012957726</v>
+        <v>0.19002561503018</v>
       </c>
       <c r="D24">
-        <v>0.09724107415834027</v>
+        <v>0.1654752413027865</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.912255984873795</v>
+        <v>1.451365965449739</v>
       </c>
       <c r="G24">
-        <v>0.0007870824688502566</v>
+        <v>0.002451784775495818</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3564816059855787</v>
+        <v>0.8204352991543047</v>
       </c>
       <c r="J24">
-        <v>0.05184019431485787</v>
+        <v>0.1619828259581055</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4725199845108534</v>
+        <v>0.4393510474241964</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7517327120645589</v>
+        <v>1.287016585826123</v>
       </c>
       <c r="O24">
-        <v>2.25492596687107</v>
+        <v>3.54678668524457</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.042940314994951</v>
+        <v>1.471550133146195</v>
       </c>
       <c r="C25">
-        <v>0.4221926912366598</v>
+        <v>0.1644873729405276</v>
       </c>
       <c r="D25">
-        <v>0.08692233686139872</v>
+        <v>0.1638120509611767</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8247282623148493</v>
+        <v>1.448674227336141</v>
       </c>
       <c r="G25">
-        <v>0.0007946320321139955</v>
+        <v>0.002456639125739827</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3485948530187102</v>
+        <v>0.830936367040124</v>
       </c>
       <c r="J25">
-        <v>0.05443017015126728</v>
+        <v>0.1642871566283315</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3987224804510134</v>
+        <v>0.4221870430141053</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.77718199846408</v>
+        <v>1.300995863632558</v>
       </c>
       <c r="O25">
-        <v>2.04015264055937</v>
+        <v>3.544297133449135</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_231/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_231/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.330172223532543</v>
+        <v>2.554420876390395</v>
       </c>
       <c r="C2">
-        <v>0.1454990197619281</v>
+        <v>0.3634520167202879</v>
       </c>
       <c r="D2">
-        <v>0.1627395962499705</v>
+        <v>0.07955068750646177</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.449243925161589</v>
+        <v>0.7660297147138095</v>
       </c>
       <c r="G2">
-        <v>0.002460514840477119</v>
+        <v>0.0008004519336166809</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8401470047134261</v>
+        <v>0.3459949926189587</v>
       </c>
       <c r="J2">
-        <v>0.1661648848737372</v>
+        <v>0.05662388786083206</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4100492350188745</v>
+        <v>0.3454606735054142</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.31285967906598</v>
+        <v>0.7995313445918981</v>
       </c>
       <c r="O2">
-        <v>3.5491773116849</v>
+        <v>1.89799689592374</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.234824730257856</v>
+        <v>2.224624471916286</v>
       </c>
       <c r="C3">
-        <v>0.1325167916962755</v>
+        <v>0.3236110839329456</v>
       </c>
       <c r="D3">
-        <v>0.1621084604897121</v>
+        <v>0.07468169022666871</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.451221181541058</v>
+        <v>0.7294074031886097</v>
       </c>
       <c r="G3">
-        <v>0.002463331043428243</v>
+        <v>0.000804567669218201</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8473107237923934</v>
+        <v>0.3460300733099935</v>
       </c>
       <c r="J3">
-        <v>0.1675507071515465</v>
+        <v>0.05827974299192462</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4021374256020636</v>
+        <v>0.3099245764018264</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.321882594484997</v>
+        <v>0.8167699942935513</v>
       </c>
       <c r="O3">
-        <v>3.556666444458557</v>
+        <v>1.810401450956533</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.176518825988296</v>
+        <v>2.022567452238889</v>
       </c>
       <c r="C4">
-        <v>0.1244903002525746</v>
+        <v>0.2991120450174805</v>
       </c>
       <c r="D4">
-        <v>0.1617684163544482</v>
+        <v>0.07175039595701804</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.453220094237835</v>
+        <v>0.7083481023176148</v>
       </c>
       <c r="G4">
-        <v>0.002465154225579413</v>
+        <v>0.0008071820096575567</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8521635876200619</v>
+        <v>0.3468753311772552</v>
       </c>
       <c r="J4">
-        <v>0.1684575823552752</v>
+        <v>0.05937685563747586</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3974353838752194</v>
+        <v>0.2883480316189235</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.327908392823709</v>
+        <v>0.8283373601729096</v>
       </c>
       <c r="O4">
-        <v>3.563325983067955</v>
+        <v>1.760556073957105</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.152820232276895</v>
+        <v>1.940312882913446</v>
       </c>
       <c r="C5">
-        <v>0.1212056876374561</v>
+        <v>0.2891165822251338</v>
       </c>
       <c r="D5">
-        <v>0.1616418336731158</v>
+        <v>0.07056995083473794</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.454232090026494</v>
+        <v>0.700106816343272</v>
       </c>
       <c r="G5">
-        <v>0.002465920899962988</v>
+        <v>0.0008082696844979758</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8542553733955742</v>
+        <v>0.3474180764021533</v>
       </c>
       <c r="J5">
-        <v>0.1688412304223661</v>
+        <v>0.0598437247202579</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3955586415738992</v>
+        <v>0.2796119306571967</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.330486233920539</v>
+        <v>0.8332913171684524</v>
       </c>
       <c r="O5">
-        <v>3.56655801421536</v>
+        <v>1.741181684655999</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.148888866378826</v>
+        <v>1.926659020371602</v>
       </c>
       <c r="C6">
-        <v>0.1206594545192416</v>
+        <v>0.2874560482655966</v>
       </c>
       <c r="D6">
-        <v>0.1616215402333054</v>
+        <v>0.07037477300728057</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.454412056808138</v>
+        <v>0.6987584080307556</v>
       </c>
       <c r="G6">
-        <v>0.002466049640137923</v>
+        <v>0.0008084516498519378</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8546096094480689</v>
+        <v>0.3475199248574157</v>
       </c>
       <c r="J6">
-        <v>0.1689057862418046</v>
+        <v>0.05992243072069314</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3952493938781174</v>
+        <v>0.2781645933958998</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.330921672282486</v>
+        <v>0.8341282264067971</v>
       </c>
       <c r="O6">
-        <v>3.567125986993744</v>
+        <v>1.738019752078117</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.176198967018536</v>
+        <v>2.021457825101834</v>
       </c>
       <c r="C7">
-        <v>0.1244460582801281</v>
+        <v>0.2989772943753906</v>
       </c>
       <c r="D7">
-        <v>0.1617666606098922</v>
+        <v>0.07173441978733308</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.453232942930697</v>
+        <v>0.7082356020783607</v>
       </c>
       <c r="G7">
-        <v>0.002465164469199365</v>
+        <v>0.0008071965876923998</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8521913358140303</v>
+        <v>0.3468818593117682</v>
       </c>
       <c r="J7">
-        <v>0.1684626993028271</v>
+        <v>0.05938307244021424</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3974099137790148</v>
+        <v>0.2882299904841261</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.327942663187102</v>
+        <v>0.8284032074972103</v>
       </c>
       <c r="O7">
-        <v>3.563367473255312</v>
+        <v>1.760291053582165</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.297248048980464</v>
+        <v>2.440600183273034</v>
       </c>
       <c r="C8">
-        <v>0.1410343315836542</v>
+        <v>0.349720745171112</v>
       </c>
       <c r="D8">
-        <v>0.1625121564931078</v>
+        <v>0.07785940143204328</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.449762816580382</v>
+        <v>0.7530948973394871</v>
       </c>
       <c r="G8">
-        <v>0.002461466395356253</v>
+        <v>0.0008018531541503958</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8425227409265048</v>
+        <v>0.3458306786328897</v>
       </c>
       <c r="J8">
-        <v>0.166631107191197</v>
+        <v>0.0571778713355986</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4072890091514267</v>
+        <v>0.3331546305157929</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.315870062571456</v>
+        <v>0.8052669568319999</v>
       </c>
       <c r="O8">
-        <v>3.551331706851556</v>
+        <v>1.866944180366431</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.536448333789338</v>
+        <v>3.267274931873033</v>
       </c>
       <c r="C9">
-        <v>0.1731188463359388</v>
+        <v>0.4490751055834608</v>
       </c>
       <c r="D9">
-        <v>0.1643487647506774</v>
+        <v>0.09036113688513581</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.44918449031168</v>
+        <v>0.8532595684161066</v>
       </c>
       <c r="G9">
-        <v>0.002454957301400221</v>
+        <v>0.0007920495701642815</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8271692400991775</v>
+        <v>0.3507249153813028</v>
       </c>
       <c r="J9">
-        <v>0.1634828561049595</v>
+        <v>0.05351184381002128</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4278913796481589</v>
+        <v>0.4233987910254768</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.296043243790862</v>
+        <v>0.7680259964463545</v>
       </c>
       <c r="O9">
-        <v>3.54409208856373</v>
+        <v>2.109845748126077</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.713232598583033</v>
+        <v>3.879441151549145</v>
       </c>
       <c r="C10">
-        <v>0.1964143019377218</v>
+        <v>0.5221888799474925</v>
       </c>
       <c r="D10">
-        <v>0.1659241216900469</v>
+        <v>0.0998877223453718</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.452556611079743</v>
+        <v>0.9355777642180811</v>
       </c>
       <c r="G10">
-        <v>0.002450623423602092</v>
+        <v>0.0007852324651276198</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.818090525418036</v>
+        <v>0.3591782301998379</v>
       </c>
       <c r="J10">
-        <v>0.1614392933172297</v>
+        <v>0.05124930931033589</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4437699733989149</v>
+        <v>0.4913427088362283</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.283814056159791</v>
+        <v>0.7461080052221973</v>
       </c>
       <c r="O10">
-        <v>3.548765028561007</v>
+        <v>2.312588381437649</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.793869737531736</v>
+        <v>4.159439717079124</v>
       </c>
       <c r="C11">
-        <v>0.2069507660854413</v>
+        <v>0.5555276508391103</v>
       </c>
       <c r="D11">
-        <v>0.1666893714360924</v>
+        <v>0.104305896816868</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.454915578022636</v>
+        <v>0.9752288254970267</v>
       </c>
       <c r="G11">
-        <v>0.002448748232081838</v>
+        <v>0.0007822088494831208</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8144390627631424</v>
+        <v>0.3642249989941462</v>
       </c>
       <c r="J11">
-        <v>0.1605679409897238</v>
+        <v>0.05032052171500467</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4511532148845561</v>
+        <v>0.5226882281904324</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.278756691723103</v>
+        <v>0.7374345770357991</v>
       </c>
       <c r="O11">
-        <v>3.553064548173182</v>
+        <v>2.410976235325705</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.824434629176551</v>
+        <v>4.265727270717662</v>
       </c>
       <c r="C12">
-        <v>0.2109317733121543</v>
+        <v>0.5681680995036515</v>
       </c>
       <c r="D12">
-        <v>0.1669860954404427</v>
+        <v>0.1059919766926214</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.455927477015777</v>
+        <v>0.9905880334999182</v>
       </c>
       <c r="G12">
-        <v>0.002448051922956835</v>
+        <v>0.0007810745035392754</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8131252086087812</v>
+        <v>0.3663219420450758</v>
       </c>
       <c r="J12">
-        <v>0.160246348798907</v>
+        <v>0.04998387941672711</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4539718976102876</v>
+        <v>0.5346278873430919</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.276914209311926</v>
+        <v>0.7343471279579248</v>
       </c>
       <c r="O12">
-        <v>3.555005475567469</v>
+        <v>2.44919778425151</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.81785065679469</v>
+        <v>4.242824200338305</v>
       </c>
       <c r="C13">
-        <v>0.210074792000114</v>
+        <v>0.5654449762470222</v>
       </c>
       <c r="D13">
-        <v>0.1669218827265269</v>
+        <v>0.1056282560480994</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.455704271610514</v>
+        <v>0.987264389405226</v>
       </c>
       <c r="G13">
-        <v>0.002448201273414637</v>
+        <v>0.0007813183409204145</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8134051062503787</v>
+        <v>0.3658618442385588</v>
       </c>
       <c r="J13">
-        <v>0.1603152373270191</v>
+        <v>0.05005570077899257</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4533638325312381</v>
+        <v>0.5320532491156911</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.277307792013943</v>
+        <v>0.735003130123431</v>
       </c>
       <c r="O13">
-        <v>3.554573547319535</v>
+        <v>2.440921895630709</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.796383751843223</v>
+        <v>4.168178646817353</v>
       </c>
       <c r="C14">
-        <v>0.207278465845377</v>
+        <v>0.556567245166633</v>
       </c>
       <c r="D14">
-        <v>0.1667136442841155</v>
+        <v>0.1044443456537678</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.454996450572537</v>
+        <v>0.9764853751880764</v>
       </c>
       <c r="G14">
-        <v>0.0024486906703006</v>
+        <v>0.0007821153161690099</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8143295904271497</v>
+        <v>0.3643937129786892</v>
       </c>
       <c r="J14">
-        <v>0.160541315714724</v>
+        <v>0.05029252022012898</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4513846536012807</v>
+        <v>0.523669071189417</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.278603654466451</v>
+        <v>0.7371765603621654</v>
       </c>
       <c r="O14">
-        <v>3.553217959431862</v>
+        <v>2.414100951157053</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.783238420744169</v>
+        <v>4.122490935671465</v>
       </c>
       <c r="C15">
-        <v>0.2055644677543285</v>
+        <v>0.5511315715214096</v>
       </c>
       <c r="D15">
-        <v>0.1665869946117056</v>
+        <v>0.1037208877288265</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.45457833557461</v>
+        <v>0.9699285864477503</v>
       </c>
       <c r="G15">
-        <v>0.002448992233392291</v>
+        <v>0.0007826048551912712</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8149048353566641</v>
+        <v>0.3635190463224589</v>
       </c>
       <c r="J15">
-        <v>0.160680884990315</v>
+        <v>0.05043956065066624</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4501753139778799</v>
+        <v>0.5185428218671149</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.27940686368958</v>
+        <v>0.7385338254072735</v>
       </c>
       <c r="O15">
-        <v>3.552428363639109</v>
+        <v>2.397800342703135</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.707966981225866</v>
+        <v>3.861176496431369</v>
       </c>
       <c r="C16">
-        <v>0.1957244807205996</v>
+        <v>0.5200120712262049</v>
       </c>
       <c r="D16">
-        <v>0.1658750847560242</v>
+        <v>0.0996007568117605</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.45241904584428</v>
+        <v>0.9330331134749485</v>
       </c>
       <c r="G16">
-        <v>0.002450747904238741</v>
+        <v>0.000785431582079035</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8183387914515379</v>
+        <v>0.358873684382317</v>
       </c>
       <c r="J16">
-        <v>0.1614974100360218</v>
+        <v>0.05131208161966683</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4432906637674137</v>
+        <v>0.4893035856295285</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.284154735651768</v>
+        <v>0.746701814786654</v>
       </c>
       <c r="O16">
-        <v>3.548527804439715</v>
+        <v>2.306289027923242</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.661844668426568</v>
+        <v>3.70128523907448</v>
       </c>
       <c r="C17">
-        <v>0.1896722736602499</v>
+        <v>0.5009445167356432</v>
       </c>
       <c r="D17">
-        <v>0.1654507663300819</v>
+        <v>0.09709542454484676</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.451305672233204</v>
+        <v>0.9109822625209318</v>
       </c>
       <c r="G17">
-        <v>0.00245184957343578</v>
+        <v>0.0007871851855238149</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.820568014349071</v>
+        <v>0.3563406271815523</v>
       </c>
       <c r="J17">
-        <v>0.1620132402328469</v>
+        <v>0.05187350533829793</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4391079908652102</v>
+        <v>0.4714830522817408</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.287196867968163</v>
+        <v>0.7520520731201756</v>
       </c>
       <c r="O17">
-        <v>3.546691841121543</v>
+        <v>2.251781449751292</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.635336878495764</v>
+        <v>3.609460648013908</v>
       </c>
       <c r="C18">
-        <v>0.1861854967749821</v>
+        <v>0.4899845075444489</v>
       </c>
       <c r="D18">
-        <v>0.1652112881536567</v>
+        <v>0.09566232040651101</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.450742940734415</v>
+        <v>0.8985049146355522</v>
       </c>
       <c r="G18">
-        <v>0.002452492293311792</v>
+        <v>0.0007882011411326316</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8218952380197138</v>
+        <v>0.3549959175560247</v>
       </c>
       <c r="J18">
-        <v>0.1623154177824144</v>
+        <v>0.05220583670149459</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4367172987732886</v>
+        <v>0.4612738906118636</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.288994231388614</v>
+        <v>0.7552508300953633</v>
       </c>
       <c r="O18">
-        <v>3.545840437384982</v>
+        <v>2.221004845784904</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.626365381573748</v>
+        <v>3.578393420879593</v>
       </c>
       <c r="C19">
-        <v>0.1850039594608859</v>
+        <v>0.4862747350147458</v>
       </c>
       <c r="D19">
-        <v>0.1651309928497966</v>
+        <v>0.09517842686265254</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.450565746869756</v>
+        <v>0.8943148314918261</v>
       </c>
       <c r="G19">
-        <v>0.002452711466785575</v>
+        <v>0.000788546400172726</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8223523456109376</v>
+        <v>0.3545595144826308</v>
       </c>
       <c r="J19">
-        <v>0.1624186723767824</v>
+        <v>0.05231995706042092</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4359104459233691</v>
+        <v>0.4578240390969484</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.289610967693477</v>
+        <v>0.7563544225546579</v>
       </c>
       <c r="O19">
-        <v>3.545587299590494</v>
+        <v>2.210680821814435</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.666752354566313</v>
+        <v>3.71829110566614</v>
       </c>
       <c r="C20">
-        <v>0.1903171334856779</v>
+        <v>0.5029735202514303</v>
       </c>
       <c r="D20">
-        <v>0.1654954622486358</v>
+        <v>0.09736129808863581</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.451416156256343</v>
+        <v>0.9133081307585655</v>
       </c>
       <c r="G20">
-        <v>0.00245173136070459</v>
+        <v>0.0007869977565553927</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.820326048452678</v>
+        <v>0.356598567256988</v>
       </c>
       <c r="J20">
-        <v>0.1619577615536301</v>
+        <v>0.05181276197524554</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4395516851993904</v>
+        <v>0.4733758140257294</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.286868101100453</v>
+        <v>0.7514698879137285</v>
       </c>
       <c r="O20">
-        <v>3.546866106354997</v>
+        <v>2.257523842837088</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.802688320252912</v>
+        <v>4.190096518658208</v>
       </c>
       <c r="C21">
-        <v>0.208100058275221</v>
+        <v>0.5591743845139376</v>
       </c>
       <c r="D21">
-        <v>0.1667746209951773</v>
+        <v>0.1047917284726836</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.455201135910798</v>
+        <v>0.9796418642212075</v>
       </c>
       <c r="G21">
-        <v>0.002448546548940128</v>
+        <v>0.000781880940999964</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8140561772016994</v>
+        <v>0.3648197861610427</v>
       </c>
       <c r="J21">
-        <v>0.1604746839294098</v>
+        <v>0.05022254645838409</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4519653689564649</v>
+        <v>0.5261297560035558</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.278221057782055</v>
+        <v>0.7365327381272095</v>
       </c>
       <c r="O21">
-        <v>3.553607637715402</v>
+        <v>2.421952090595596</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.891700587544278</v>
+        <v>4.499974061667388</v>
       </c>
       <c r="C22">
-        <v>0.219670130761358</v>
+        <v>0.5959992144015871</v>
       </c>
       <c r="D22">
-        <v>0.1676510568967515</v>
+        <v>0.1097242399850202</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.458366175395099</v>
+        <v>1.025015199405402</v>
       </c>
       <c r="G22">
-        <v>0.002446545412640238</v>
+        <v>0.0007785985114795966</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8103599451504095</v>
+        <v>0.3712827983734215</v>
       </c>
       <c r="J22">
-        <v>0.1595541894055277</v>
+        <v>0.04927140312827127</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4602112883755467</v>
+        <v>0.5610178695606436</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.272993027642691</v>
+        <v>0.7279240222557632</v>
       </c>
       <c r="O22">
-        <v>3.559836907664646</v>
+        <v>2.535076171816428</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.844178100531508</v>
+        <v>4.334433147016568</v>
       </c>
       <c r="C23">
-        <v>0.2134997937420735</v>
+        <v>0.5763349138574938</v>
       </c>
       <c r="D23">
-        <v>0.1671796034807116</v>
+        <v>0.1070843830474217</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.456613683864205</v>
+        <v>1.000604206723565</v>
       </c>
       <c r="G23">
-        <v>0.002447606128267004</v>
+        <v>0.0007803449390658687</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8122959344240428</v>
+        <v>0.3677290669806084</v>
       </c>
       <c r="J23">
-        <v>0.1600410142704494</v>
+        <v>0.04977076338304443</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.455798194346599</v>
+        <v>0.542357470428513</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.275744622813505</v>
+        <v>0.7324094626065047</v>
       </c>
       <c r="O23">
-        <v>3.556345330178033</v>
+        <v>2.474154320846253</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.664533562910833</v>
+        <v>3.710602447890665</v>
       </c>
       <c r="C24">
-        <v>0.19002561503018</v>
+        <v>0.5020562012956873</v>
       </c>
       <c r="D24">
-        <v>0.1654752413027865</v>
+        <v>0.09724107415833316</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.451365965449739</v>
+        <v>0.9122559848737808</v>
       </c>
       <c r="G24">
-        <v>0.002451784775495818</v>
+        <v>0.0007870824689073285</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8204352991543047</v>
+        <v>0.3564816059855715</v>
       </c>
       <c r="J24">
-        <v>0.1619828259581055</v>
+        <v>0.05184019431485609</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4393510474241964</v>
+        <v>0.4725199845108818</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.287016585826123</v>
+        <v>0.7517327120645589</v>
       </c>
       <c r="O24">
-        <v>3.54678668524457</v>
+        <v>2.254925966870957</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.471550133146195</v>
+        <v>3.042940314994837</v>
       </c>
       <c r="C25">
-        <v>0.1644873729405276</v>
+        <v>0.4221926912366882</v>
       </c>
       <c r="D25">
-        <v>0.1638120509611767</v>
+        <v>0.08692233686122108</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.448674227336141</v>
+        <v>0.8247282623148493</v>
       </c>
       <c r="G25">
-        <v>0.002456639125739827</v>
+        <v>0.0007946320321430914</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.830936367040124</v>
+        <v>0.3485948530187137</v>
       </c>
       <c r="J25">
-        <v>0.1642871566283315</v>
+        <v>0.05443017015123353</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4221870430141053</v>
+        <v>0.3987224804510134</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.300995863632558</v>
+        <v>0.777181998464016</v>
       </c>
       <c r="O25">
-        <v>3.544297133449135</v>
+        <v>2.040152640559398</v>
       </c>
     </row>
   </sheetData>
